--- a/biology/Zoologie/Historis_(genre)/Historis_(genre).xlsx
+++ b/biology/Zoologie/Historis_(genre)/Historis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Historis  est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae et de la tribu des Coeini.
@@ -512,14 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologite allemand Jakob Hübner en 1819 sous le nom d’Historis[1].
-L'espèce type pour le genre est Papilio odius (Fabricius) actuellement renommée : Historis odius.
-Synonymie
-Coea (Hübner, 1819)[2]
-Aganisthos (Boisduval &amp; Le Conte, 1835)[3]
-Megistanis (Doubleday, 1844)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l'entomologite allemand Jakob Hübner en 1819 sous le nom d’Historis.
+L'espèce type pour le genre est Papilio odius (Fabricius) actuellement renommée : Historis odius.</t>
         </is>
       </c>
     </row>
@@ -544,17 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il existe deux espèces :
-Historis acheronta (Fabricius, 1775)[5]
-Historis odius (Fabricius, 1775) [6]
-			Historis acheronta - MHNT
-			Historis odius - MHNT
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coea (Hübner, 1819)
+Aganisthos (Boisduval &amp; Le Conte, 1835)
+Megistanis (Doubleday, 1844)</t>
         </is>
       </c>
     </row>
@@ -579,10 +592,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux espèces :
+Historis acheronta (Fabricius, 1775)
+Historis odius (Fabricius, 1775) 
+			Historis acheronta - MHNT
+			Historis odius - MHNT
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Historis_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale, Colombie et Brésil.
 </t>
